--- a/data/trans_bre/P6902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,85; 18,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 36,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,36; 14,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,41; 20,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,64; 91,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 145,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,2; 39,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,21; 47,79</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 18,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,73; 32,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 11,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 49,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 49,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,19; 101,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 22,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,96; 7,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 19,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 20,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 12,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,52; 9,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 31,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; 35,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 15,91</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 15,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 19,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,59; 25,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 11,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 39,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 45,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,39; 67,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 18,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>-9,81%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 20,78</t>
+          <t>-39,54; 19,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 47,79</t>
+          <t>-62,36; 51,26</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>-7,13%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 11,84</t>
+          <t>-24,32; 9,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 22,92</t>
+          <t>-41,97; 17,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 12,22</t>
+          <t>-8,33; 12,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 15,91</t>
+          <t>-8,98; 15,67</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 11,06</t>
+          <t>-19,12; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 18,79</t>
+          <t>-30,52; 14,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 18,68</t>
+          <t>-15,58; 19,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 36,28</t>
+          <t>-4,17; 37,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 14,59</t>
+          <t>-38,46; 11,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 19,98</t>
+          <t>-37,85; 21,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 91,28</t>
+          <t>-51,92; 91,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 145,67</t>
+          <t>-10,61; 149,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 39,28</t>
+          <t>-78,18; 35,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 51,26</t>
+          <t>-61,28; 50,45</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 18,83</t>
+          <t>-3,96; 18,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 20,15</t>
+          <t>-3,4; 19,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 32,31</t>
+          <t>11,1; 33,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 9,06</t>
+          <t>-24,99; 7,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 49,57</t>
+          <t>-8,37; 47,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 49,72</t>
+          <t>-6,75; 46,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 101,41</t>
+          <t>27,47; 105,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 17,01</t>
+          <t>-41,14; 13,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 7,03</t>
+          <t>-22,57; 7,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 19,68</t>
+          <t>-19,19; 20,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 20,39</t>
+          <t>-12,57; 20,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 12,2</t>
+          <t>-8,49; 12,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 9,78</t>
+          <t>-28,06; 11,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 31,66</t>
+          <t>-23,4; 32,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 35,15</t>
+          <t>-16,33; 35,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 15,67</t>
+          <t>-8,96; 16,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,87</t>
+          <t>0,27; 17,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 19,05</t>
+          <t>0,84; 18,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 25,92</t>
+          <t>8,03; 25,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 8,54</t>
+          <t>-16,93; 8,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 39,45</t>
+          <t>0,72; 43,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 45,37</t>
+          <t>1,71; 44,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 67,22</t>
+          <t>16,24; 63,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 14,3</t>
+          <t>-27,3; 13,85</t>
         </is>
       </c>
     </row>
